--- a/dataset/students.xlsx
+++ b/dataset/students.xlsx
@@ -498,7 +498,7 @@
       <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5" outlineLevelCol="0"/>
   <cols>
     <col width="45.54296875" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="10" max="10"/>
@@ -598,6 +598,9 @@
       <c r="I2" t="n">
         <v>8.801809222628636</v>
       </c>
+      <c r="J2" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="4" t="inlineStr">
@@ -641,6 +644,9 @@
       <c r="I3" t="n">
         <v>8.844363100000001</v>
       </c>
+      <c r="J3" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
@@ -680,6 +686,9 @@
       <c r="I4" t="n">
         <v>8.791779949999997</v>
       </c>
+      <c r="J4" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="inlineStr">
@@ -723,6 +732,9 @@
       <c r="I5" t="n">
         <v>8.874853456088633</v>
       </c>
+      <c r="J5" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
@@ -766,6 +778,9 @@
       <c r="I6" t="n">
         <v>8.788953309329031</v>
       </c>
+      <c r="J6" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="inlineStr">
@@ -809,6 +824,9 @@
       <c r="I7" t="n">
         <v>8.87411999171356</v>
       </c>
+      <c r="J7" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
@@ -852,6 +870,9 @@
       <c r="I8" t="n">
         <v>8.749507190490972</v>
       </c>
+      <c r="J8" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="4" t="inlineStr">
@@ -895,6 +916,9 @@
       <c r="I9" t="n">
         <v>8.8510203</v>
       </c>
+      <c r="J9" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
@@ -938,6 +962,9 @@
       <c r="I10" t="n">
         <v>8.75585515</v>
       </c>
+      <c r="J10" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="4" t="inlineStr">
@@ -981,6 +1008,9 @@
       <c r="I11" t="n">
         <v>8.777824045542545</v>
       </c>
+      <c r="J11" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
@@ -1024,6 +1054,9 @@
       <c r="I12" t="n">
         <v>8.76279875</v>
       </c>
+      <c r="J12" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="4" t="inlineStr">
@@ -1067,6 +1100,9 @@
       <c r="I13" t="n">
         <v>8.9125791</v>
       </c>
+      <c r="J13" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
@@ -1110,6 +1146,9 @@
       <c r="I14" t="n">
         <v>8.77742300095839</v>
       </c>
+      <c r="J14" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="4" t="inlineStr">
@@ -1153,6 +1192,9 @@
       <c r="I15" t="n">
         <v>8.870149700000001</v>
       </c>
+      <c r="J15" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
@@ -1196,6 +1238,9 @@
       <c r="I16" t="n">
         <v>8.855150334357537</v>
       </c>
+      <c r="J16" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="4" t="inlineStr">
@@ -1239,6 +1284,9 @@
       <c r="I17" t="n">
         <v>8.8204967</v>
       </c>
+      <c r="J17" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
@@ -1319,6 +1367,9 @@
       <c r="I19" t="n">
         <v>8.809465316133277</v>
       </c>
+      <c r="J19" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
@@ -1362,6 +1413,9 @@
       <c r="I20" t="n">
         <v>8.910474551732712</v>
       </c>
+      <c r="J20" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="4" t="inlineStr">
@@ -1405,6 +1459,9 @@
       <c r="I21" t="n">
         <v>8.786505545500017</v>
       </c>
+      <c r="J21" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
@@ -1448,6 +1505,9 @@
       <c r="I22" t="n">
         <v>8.782012209949205</v>
       </c>
+      <c r="J22" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="4" t="inlineStr">
@@ -1487,6 +1547,9 @@
       <c r="I23" t="n">
         <v>8.7221212</v>
       </c>
+      <c r="J23" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
@@ -1530,6 +1593,9 @@
       <c r="I24" t="n">
         <v>8.934612899999999</v>
       </c>
+      <c r="J24" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="4" t="inlineStr">
@@ -1610,6 +1676,9 @@
       <c r="I26" t="n">
         <v>8.743888502329996</v>
       </c>
+      <c r="J26" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="4" t="inlineStr">
@@ -1653,6 +1722,9 @@
       <c r="I27" t="n">
         <v>8.69557315</v>
       </c>
+      <c r="J27" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
@@ -1696,6 +1768,9 @@
       <c r="I28" t="n">
         <v>8.78476485</v>
       </c>
+      <c r="J28" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="4" t="inlineStr">
@@ -1739,6 +1814,9 @@
       <c r="I29" t="n">
         <v>8.758526855121952</v>
       </c>
+      <c r="J29" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
@@ -1782,6 +1860,9 @@
       <c r="I30" t="n">
         <v>8.879099711166653</v>
       </c>
+      <c r="J30" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="4" t="inlineStr">
@@ -1825,6 +1906,9 @@
       <c r="I31" t="n">
         <v>8.792075952091199</v>
       </c>
+      <c r="J31" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
@@ -1864,6 +1948,9 @@
       <c r="I32" t="n">
         <v>8.87095947315256</v>
       </c>
+      <c r="J32" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="4" t="inlineStr">
@@ -1907,6 +1994,9 @@
       <c r="I33" t="n">
         <v>8.77384652043947</v>
       </c>
+      <c r="J33" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
@@ -1950,6 +2040,9 @@
       <c r="I34" t="n">
         <v>8.775713150862664</v>
       </c>
+      <c r="J34" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="4" t="inlineStr">
@@ -1989,6 +2082,9 @@
       <c r="I35" t="n">
         <v>8.8095629</v>
       </c>
+      <c r="J35" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
@@ -2032,6 +2128,9 @@
       <c r="I36" t="n">
         <v>8.817480348754543</v>
       </c>
+      <c r="J36" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="4" t="inlineStr">
@@ -2075,6 +2174,9 @@
       <c r="I37" t="n">
         <v>8.871769790929678</v>
       </c>
+      <c r="J37" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
@@ -2118,6 +2220,9 @@
       <c r="I38" t="n">
         <v>8.873219649958198</v>
       </c>
+      <c r="J38" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="4" t="inlineStr">
@@ -2161,6 +2266,9 @@
       <c r="I39" t="n">
         <v>8.8204967</v>
       </c>
+      <c r="J39" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
@@ -2204,6 +2312,9 @@
       <c r="I40" t="n">
         <v>8.845803957339044</v>
       </c>
+      <c r="J40" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="4" t="inlineStr">
@@ -2247,6 +2358,9 @@
       <c r="I41" t="n">
         <v>8.813018</v>
       </c>
+      <c r="J41" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
@@ -2290,6 +2404,9 @@
       <c r="I42" t="n">
         <v>8.730505549999997</v>
       </c>
+      <c r="J42" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="4" t="inlineStr">
@@ -2333,6 +2450,9 @@
       <c r="I43" t="n">
         <v>8.712104517359087</v>
       </c>
+      <c r="J43" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
@@ -2376,6 +2496,9 @@
       <c r="I44" t="n">
         <v>8.871850003920496</v>
       </c>
+      <c r="J44" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="4" t="inlineStr">
@@ -2419,6 +2542,9 @@
       <c r="I45" t="n">
         <v>8.8516786</v>
       </c>
+      <c r="J45" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
@@ -2462,6 +2588,9 @@
       <c r="I46" t="n">
         <v>8.716966514754366</v>
       </c>
+      <c r="J46" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="4" t="inlineStr">
@@ -2505,6 +2634,9 @@
       <c r="I47" t="n">
         <v>8.792056349999996</v>
       </c>
+      <c r="J47" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
@@ -2548,6 +2680,9 @@
       <c r="I48" t="n">
         <v>8.786099545482944</v>
       </c>
+      <c r="J48" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="4" t="inlineStr">
@@ -2591,6 +2726,9 @@
       <c r="I49" t="n">
         <v>8.9162003</v>
       </c>
+      <c r="J49" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="inlineStr">
@@ -2634,6 +2772,9 @@
       <c r="I50" t="n">
         <v>8.773692</v>
       </c>
+      <c r="J50" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="4" t="inlineStr">
@@ -2677,6 +2818,9 @@
       <c r="I51" t="n">
         <v>8.797390499999999</v>
       </c>
+      <c r="J51" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="inlineStr">
@@ -2720,6 +2864,9 @@
       <c r="I52" t="n">
         <v>8.729745625876459</v>
       </c>
+      <c r="J52" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="4" t="inlineStr">
@@ -2759,6 +2906,9 @@
       <c r="I53" t="n">
         <v>7.827164</v>
       </c>
+      <c r="J53" t="n">
+        <v>119</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="inlineStr">
@@ -2802,6 +2952,9 @@
       <c r="I54" t="n">
         <v>8.787939941850961</v>
       </c>
+      <c r="J54" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="4" t="inlineStr">
@@ -2845,6 +2998,9 @@
       <c r="I55" t="n">
         <v>8.858969374524021</v>
       </c>
+      <c r="J55" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="inlineStr">
@@ -2888,6 +3044,9 @@
       <c r="I56" t="n">
         <v>8.718685799999999</v>
       </c>
+      <c r="J56" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="4" t="inlineStr">
@@ -2931,6 +3090,9 @@
       <c r="I57" t="n">
         <v>8.761331200000001</v>
       </c>
+      <c r="J57" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="inlineStr">
@@ -3007,6 +3169,9 @@
       <c r="I59" t="n">
         <v>8.793256602131084</v>
       </c>
+      <c r="J59" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="inlineStr">
@@ -3050,6 +3215,9 @@
       <c r="I60" t="n">
         <v>8.8442072</v>
       </c>
+      <c r="J60" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="4" t="inlineStr">
@@ -3093,6 +3261,9 @@
       <c r="I61" t="n">
         <v>8.745427100000001</v>
       </c>
+      <c r="J61" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="inlineStr">
@@ -3136,6 +3307,9 @@
       <c r="I62" t="n">
         <v>8.793363565239192</v>
       </c>
+      <c r="J62" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="4" t="inlineStr">
@@ -3179,6 +3353,9 @@
       <c r="I63" t="n">
         <v>8.845889322547903</v>
       </c>
+      <c r="J63" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="inlineStr">
@@ -3222,6 +3399,9 @@
       <c r="I64" t="n">
         <v>8.826690807561135</v>
       </c>
+      <c r="J64" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="4" t="inlineStr">
@@ -3265,6 +3445,9 @@
       <c r="I65" t="n">
         <v>8.723962458212734</v>
       </c>
+      <c r="J65" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="inlineStr">
@@ -3308,6 +3491,9 @@
       <c r="I66" t="n">
         <v>8.8652774</v>
       </c>
+      <c r="J66" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="4" t="inlineStr">
@@ -3351,6 +3537,9 @@
       <c r="I67" t="n">
         <v>8.8510203</v>
       </c>
+      <c r="J67" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="inlineStr">
@@ -3390,6 +3579,9 @@
       <c r="I68" t="n">
         <v>8.68895927498515</v>
       </c>
+      <c r="J68" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="4" t="inlineStr">
@@ -3433,6 +3625,9 @@
       <c r="I69" t="n">
         <v>8.722008215445026</v>
       </c>
+      <c r="J69" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="inlineStr">
@@ -3472,6 +3667,9 @@
       <c r="I70" t="n">
         <v>8.7867827</v>
       </c>
+      <c r="J70" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="4" t="inlineStr">
@@ -3515,6 +3713,9 @@
       <c r="I71" t="n">
         <v>8.790209682020057</v>
       </c>
+      <c r="J71" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="inlineStr">
@@ -3558,6 +3759,9 @@
       <c r="I72" t="n">
         <v>8.718833673431504</v>
       </c>
+      <c r="J72" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="4" t="inlineStr">
@@ -3601,6 +3805,9 @@
       <c r="I73" t="n">
         <v>8.755763949999999</v>
       </c>
+      <c r="J73" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="inlineStr">
@@ -3644,6 +3851,9 @@
       <c r="I74" t="n">
         <v>8.805746238826092</v>
       </c>
+      <c r="J74" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="4" t="inlineStr">
@@ -3687,6 +3897,9 @@
       <c r="I75" t="n">
         <v>8.721079273116988</v>
       </c>
+      <c r="J75" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="inlineStr">
@@ -3726,6 +3939,9 @@
       <c r="I76" t="n">
         <v>8.763195692314415</v>
       </c>
+      <c r="J76" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="4" t="inlineStr">
@@ -3769,6 +3985,9 @@
       <c r="I77" t="n">
         <v>8.746480095871981</v>
       </c>
+      <c r="J77" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="inlineStr">
@@ -3812,6 +4031,9 @@
       <c r="I78" t="n">
         <v>8.77995215</v>
       </c>
+      <c r="J78" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="4" t="inlineStr">
@@ -3851,6 +4073,9 @@
       <c r="I79" t="n">
         <v>8.863858838038702</v>
       </c>
+      <c r="J79" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="inlineStr">
@@ -3894,6 +4119,9 @@
       <c r="I80" t="n">
         <v>8.760407453773819</v>
       </c>
+      <c r="J80" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="4" t="inlineStr">
@@ -3937,6 +4165,9 @@
       <c r="I81" t="n">
         <v>8.786225443459916</v>
       </c>
+      <c r="J81" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="inlineStr">
@@ -3980,6 +4211,9 @@
       <c r="I82" t="n">
         <v>8.792910138679938</v>
       </c>
+      <c r="J82" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="4" t="inlineStr">
@@ -4023,6 +4257,9 @@
       <c r="I83" t="n">
         <v>8.721333871236205</v>
       </c>
+      <c r="J83" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="inlineStr">
@@ -4066,6 +4303,9 @@
       <c r="I84" t="n">
         <v>8.793588232033329</v>
       </c>
+      <c r="J84" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="4" t="inlineStr">
@@ -4109,6 +4349,9 @@
       <c r="I85" t="n">
         <v>8.724050800000001</v>
       </c>
+      <c r="J85" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="inlineStr">
@@ -4152,6 +4395,9 @@
       <c r="I86" t="n">
         <v>8.723962458212734</v>
       </c>
+      <c r="J86" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="4" t="inlineStr">
@@ -4195,6 +4441,9 @@
       <c r="I87" t="n">
         <v>8.747909966068567</v>
       </c>
+      <c r="J87" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="inlineStr">
@@ -4238,6 +4487,9 @@
       <c r="I88" t="n">
         <v>8.8175139</v>
       </c>
+      <c r="J88" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="4" t="inlineStr">
@@ -4277,6 +4529,9 @@
       <c r="I89" t="n">
         <v>8.790732546054812</v>
       </c>
+      <c r="J89" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="inlineStr">
@@ -4320,6 +4575,9 @@
       <c r="I90" t="n">
         <v>8.788839979049772</v>
       </c>
+      <c r="J90" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="4" t="inlineStr">
@@ -4363,6 +4621,9 @@
       <c r="I91" t="n">
         <v>8.774756410296916</v>
       </c>
+      <c r="J91" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="inlineStr">
@@ -4406,6 +4667,9 @@
       <c r="I92" t="n">
         <v>8.689570700000001</v>
       </c>
+      <c r="J92" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="4" t="inlineStr">
@@ -4449,6 +4713,9 @@
       <c r="I93" t="n">
         <v>8.7812</v>
       </c>
+      <c r="J93" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="inlineStr">
@@ -4492,6 +4759,9 @@
       <c r="I94" t="n">
         <v>8.648271683351801</v>
       </c>
+      <c r="J94" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="4" t="inlineStr">
@@ -4535,6 +4805,9 @@
       <c r="I95" t="n">
         <v>8.771588041108405</v>
       </c>
+      <c r="J95" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="inlineStr">
@@ -4578,6 +4851,9 @@
       <c r="I96" t="n">
         <v>8.677672846886683</v>
       </c>
+      <c r="J96" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="4" t="inlineStr">
@@ -4621,6 +4897,9 @@
       <c r="I97" t="n">
         <v>8.824873589623785</v>
       </c>
+      <c r="J97" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="inlineStr">
@@ -4664,6 +4943,9 @@
       <c r="I98" t="n">
         <v>8.851985900516365</v>
       </c>
+      <c r="J98" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="4" t="inlineStr">
@@ -4707,6 +4989,9 @@
       <c r="I99" t="n">
         <v>8.756302255035397</v>
       </c>
+      <c r="J99" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="inlineStr">
@@ -4750,6 +5035,9 @@
       <c r="I100" t="n">
         <v>8.809912458594019</v>
       </c>
+      <c r="J100" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="4" t="inlineStr">
@@ -4793,6 +5081,9 @@
       <c r="I101" t="n">
         <v>8.767085854188348</v>
       </c>
+      <c r="J101" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="inlineStr">
@@ -4835,6 +5126,9 @@
       </c>
       <c r="I102" t="n">
         <v>8.871781800000001</v>
+      </c>
+      <c r="J102" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="103">
